--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
   </si>
   <si>
     <t>Cr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.4326503333333334</v>
+      </c>
+      <c r="H2">
+        <v>1.297951</v>
+      </c>
+      <c r="I2">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="J2">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.8151536666666667</v>
+      </c>
+      <c r="N2">
+        <v>2.445461</v>
+      </c>
+      <c r="O2">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="P2">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="Q2">
+        <v>0.3526765056012223</v>
+      </c>
+      <c r="R2">
+        <v>3.174088550411</v>
+      </c>
+      <c r="S2">
+        <v>0.252575265604717</v>
+      </c>
+      <c r="T2">
+        <v>0.252575265604717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.4326503333333334</v>
+      </c>
+      <c r="H3">
+        <v>1.297951</v>
+      </c>
+      <c r="I3">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="J3">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.4344813333333333</v>
+      </c>
+      <c r="N3">
+        <v>1.303444</v>
+      </c>
+      <c r="O3">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="P3">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="Q3">
+        <v>0.1879784936937778</v>
+      </c>
+      <c r="R3">
+        <v>1.691806443244</v>
+      </c>
+      <c r="S3">
+        <v>0.1346239888924316</v>
+      </c>
+      <c r="T3">
+        <v>0.1346239888924317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4326503333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.297951</v>
+      </c>
+      <c r="I4">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="J4">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07715033333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.231451</v>
+      </c>
+      <c r="O4">
+        <v>0.05529110539688545</v>
+      </c>
+      <c r="P4">
+        <v>0.05529110539688546</v>
+      </c>
+      <c r="Q4">
+        <v>0.03337911743344445</v>
+      </c>
+      <c r="R4">
+        <v>0.300412056901</v>
+      </c>
+      <c r="S4">
+        <v>0.02390502150697858</v>
+      </c>
+      <c r="T4">
+        <v>0.02390502150697859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.142552836958397</v>
-      </c>
-      <c r="H2">
-        <v>0.142552836958397</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.803141739773478</v>
-      </c>
-      <c r="N2">
-        <v>0.803141739773478</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.1144901334844119</v>
-      </c>
-      <c r="R2">
-        <v>0.1144901334844119</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4326503333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.297951</v>
+      </c>
+      <c r="I5">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="J5">
+        <v>0.4323484100269979</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.06856266666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.205688</v>
+      </c>
+      <c r="O5">
+        <v>0.04913660725974213</v>
+      </c>
+      <c r="P5">
+        <v>0.04913660725974214</v>
+      </c>
+      <c r="Q5">
+        <v>0.02966366058755556</v>
+      </c>
+      <c r="R5">
+        <v>0.266972945288</v>
+      </c>
+      <c r="S5">
+        <v>0.02124413402287055</v>
+      </c>
+      <c r="T5">
+        <v>0.02124413402287055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4000956666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.200287</v>
+      </c>
+      <c r="I6">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="J6">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8151536666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.445461</v>
+      </c>
+      <c r="O6">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="P6">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="Q6">
+        <v>0.3261394497007777</v>
+      </c>
+      <c r="R6">
+        <v>2.935255047306999</v>
+      </c>
+      <c r="S6">
+        <v>0.2335703025976242</v>
+      </c>
+      <c r="T6">
+        <v>0.2335703025976242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4000956666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.200287</v>
+      </c>
+      <c r="I7">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="J7">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.4344813333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.303444</v>
+      </c>
+      <c r="O7">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="P7">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="Q7">
+        <v>0.1738340987142222</v>
+      </c>
+      <c r="R7">
+        <v>1.564506888428</v>
+      </c>
+      <c r="S7">
+        <v>0.1244942403493892</v>
+      </c>
+      <c r="T7">
+        <v>0.1244942403493892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4000956666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.200287</v>
+      </c>
+      <c r="I8">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="J8">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07715033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.231451</v>
+      </c>
+      <c r="O8">
+        <v>0.05529110539688545</v>
+      </c>
+      <c r="P8">
+        <v>0.05529110539688546</v>
+      </c>
+      <c r="Q8">
+        <v>0.03086751404855555</v>
+      </c>
+      <c r="R8">
+        <v>0.277807626437</v>
+      </c>
+      <c r="S8">
+        <v>0.02210629411244862</v>
+      </c>
+      <c r="T8">
+        <v>0.02210629411244863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4000956666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.200287</v>
+      </c>
+      <c r="I9">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="J9">
+        <v>0.3998164615043828</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06856266666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.205688</v>
+      </c>
+      <c r="O9">
+        <v>0.04913660725974213</v>
+      </c>
+      <c r="P9">
+        <v>0.04913660725974214</v>
+      </c>
+      <c r="Q9">
+        <v>0.02743162582844445</v>
+      </c>
+      <c r="R9">
+        <v>0.246884632456</v>
+      </c>
+      <c r="S9">
+        <v>0.01964562444492066</v>
+      </c>
+      <c r="T9">
+        <v>0.01964562444492067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02127033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.06381100000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="J10">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8151536666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.445461</v>
+      </c>
+      <c r="O10">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="P10">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="Q10">
+        <v>0.01733859020788889</v>
+      </c>
+      <c r="R10">
+        <v>0.156047311871</v>
+      </c>
+      <c r="S10">
+        <v>0.01241732567215758</v>
+      </c>
+      <c r="T10">
+        <v>0.01241732567215758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02127033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.06381100000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="J11">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.4344813333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.303444</v>
+      </c>
+      <c r="O11">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="P11">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="Q11">
+        <v>0.009241562787111112</v>
+      </c>
+      <c r="R11">
+        <v>0.08317406508400001</v>
+      </c>
+      <c r="S11">
+        <v>0.00661850205070527</v>
+      </c>
+      <c r="T11">
+        <v>0.006618502050705271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02127033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.06381100000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="J12">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07715033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.231451</v>
+      </c>
+      <c r="O12">
+        <v>0.05529110539688545</v>
+      </c>
+      <c r="P12">
+        <v>0.05529110539688546</v>
+      </c>
+      <c r="Q12">
+        <v>0.001641013306777778</v>
+      </c>
+      <c r="R12">
+        <v>0.014769119761</v>
+      </c>
+      <c r="S12">
+        <v>0.001175239533219521</v>
+      </c>
+      <c r="T12">
+        <v>0.001175239533219521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02127033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.06381100000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="J13">
+        <v>0.02125548991620852</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06856266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.205688</v>
+      </c>
+      <c r="O13">
+        <v>0.04913660725974213</v>
+      </c>
+      <c r="P13">
+        <v>0.04913660725974214</v>
+      </c>
+      <c r="Q13">
+        <v>0.001458350774222223</v>
+      </c>
+      <c r="R13">
+        <v>0.013125156968</v>
+      </c>
+      <c r="S13">
+        <v>0.001044422660126147</v>
+      </c>
+      <c r="T13">
+        <v>0.001044422660126147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.146682</v>
+      </c>
+      <c r="H14">
+        <v>0.440046</v>
+      </c>
+      <c r="I14">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="J14">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8151536666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.445461</v>
+      </c>
+      <c r="O14">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="P14">
+        <v>0.584193811627398</v>
+      </c>
+      <c r="Q14">
+        <v>0.119568370134</v>
+      </c>
+      <c r="R14">
+        <v>1.076115331206</v>
+      </c>
+      <c r="S14">
+        <v>0.08563091775289923</v>
+      </c>
+      <c r="T14">
+        <v>0.08563091775289924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.146682</v>
+      </c>
+      <c r="H15">
+        <v>0.440046</v>
+      </c>
+      <c r="I15">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="J15">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.4344813333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.303444</v>
+      </c>
+      <c r="O15">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="P15">
+        <v>0.3113784757159743</v>
+      </c>
+      <c r="Q15">
+        <v>0.063730590936</v>
+      </c>
+      <c r="R15">
+        <v>0.5735753184240001</v>
+      </c>
+      <c r="S15">
+        <v>0.04564174442344816</v>
+      </c>
+      <c r="T15">
+        <v>0.04564174442344818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.146682</v>
+      </c>
+      <c r="H16">
+        <v>0.440046</v>
+      </c>
+      <c r="I16">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="J16">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07715033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.231451</v>
+      </c>
+      <c r="O16">
+        <v>0.05529110539688545</v>
+      </c>
+      <c r="P16">
+        <v>0.05529110539688546</v>
+      </c>
+      <c r="Q16">
+        <v>0.011316565194</v>
+      </c>
+      <c r="R16">
+        <v>0.101849086746</v>
+      </c>
+      <c r="S16">
+        <v>0.008104550244238725</v>
+      </c>
+      <c r="T16">
+        <v>0.008104550244238728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.146682</v>
+      </c>
+      <c r="H17">
+        <v>0.440046</v>
+      </c>
+      <c r="I17">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="J17">
+        <v>0.1465796385524109</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.06856266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.205688</v>
+      </c>
+      <c r="O17">
+        <v>0.04913660725974213</v>
+      </c>
+      <c r="P17">
+        <v>0.04913660725974214</v>
+      </c>
+      <c r="Q17">
+        <v>0.010056909072</v>
+      </c>
+      <c r="R17">
+        <v>0.09051218164800001</v>
+      </c>
+      <c r="S17">
+        <v>0.007202426131824771</v>
+      </c>
+      <c r="T17">
+        <v>0.007202426131824774</v>
       </c>
     </row>
   </sheetData>
